--- a/汽柴煤油2.0/eta/山东丙烯主流价-SC指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/山东丙烯主流价-SC指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3306.6871</v>
+        <v>2476.1056</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2877.6373</v>
+        <v>2840.0979</v>
       </c>
       <c r="C3" t="n">
-        <v>2829.8132</v>
+        <v>2685.4476</v>
       </c>
     </row>
     <row r="4">
